--- a/lowe/edd/data/VENT$HWS.xlsx
+++ b/lowe/edd/data/VENT$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1517,14 +1517,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH75"/>
+  <dimension ref="A1:JI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2387,11 +2387,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3192,10 +3195,13 @@
         <v>412300</v>
       </c>
       <c r="JH9" s="11">
-        <v>408300</v>
+        <v>409300</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>410200</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3996,10 +4002,13 @@
         <v>386000</v>
       </c>
       <c r="JH10" s="11">
-        <v>383100</v>
+        <v>384000</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>388600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4802,8 +4811,11 @@
       <c r="JH11" s="11">
         <v>25300</v>
       </c>
+      <c r="JI11" s="11">
+        <v>21600</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5606,8 +5618,11 @@
       <c r="JH12" s="12">
         <v>6.2E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6408,10 +6423,13 @@
         <v>320600</v>
       </c>
       <c r="JH13" s="11">
-        <v>320100</v>
+        <v>321000</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>322200</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7214,8 +7232,11 @@
       <c r="JH14" s="11">
         <v>23900</v>
       </c>
+      <c r="JI14" s="11">
+        <v>24100</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8016,10 +8037,13 @@
         <v>294500</v>
       </c>
       <c r="JH15" s="11">
-        <v>296200</v>
+        <v>297100</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>298100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8820,10 +8844,13 @@
         <v>252200</v>
       </c>
       <c r="JH16" s="11">
-        <v>253000</v>
+        <v>253200</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>252400</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9624,10 +9651,13 @@
         <v>44500</v>
       </c>
       <c r="JH17" s="11">
-        <v>44700</v>
+        <v>44800</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>44200</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10428,10 +10458,13 @@
         <v>17900</v>
       </c>
       <c r="JH18" s="11">
-        <v>18100</v>
+        <v>18200</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>17500</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11234,8 +11267,11 @@
       <c r="JH19" s="11">
         <v>900</v>
       </c>
+      <c r="JI19" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12036,10 +12072,13 @@
         <v>17000</v>
       </c>
       <c r="JH20" s="11">
-        <v>17200</v>
+        <v>17300</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>16600</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12842,8 +12881,11 @@
       <c r="JH21" s="11">
         <v>11600</v>
       </c>
+      <c r="JI21" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13646,8 +13688,11 @@
       <c r="JH22" s="11">
         <v>26600</v>
       </c>
+      <c r="JI22" s="11">
+        <v>26700</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14448,10 +14493,13 @@
         <v>18800</v>
       </c>
       <c r="JH23" s="11">
-        <v>18700</v>
+        <v>18600</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>18600</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15254,8 +15302,11 @@
       <c r="JH24" s="11">
         <v>5200</v>
       </c>
+      <c r="JI24" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -16056,10 +16107,13 @@
         <v>7800</v>
       </c>
       <c r="JH25" s="11">
-        <v>7900</v>
+        <v>8000</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>8100</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16862,8 +16916,11 @@
       <c r="JH26" s="11">
         <v>3300</v>
       </c>
+      <c r="JI26" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17664,10 +17721,13 @@
         <v>250000</v>
       </c>
       <c r="JH27" s="11">
-        <v>251500</v>
+        <v>252300</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>253900</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18468,10 +18528,13 @@
         <v>207700</v>
       </c>
       <c r="JH28" s="11">
-        <v>208300</v>
+        <v>208400</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>208200</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19272,10 +19335,13 @@
         <v>53300</v>
       </c>
       <c r="JH29" s="11">
-        <v>53900</v>
+        <v>54000</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>54100</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20078,8 +20144,11 @@
       <c r="JH30" s="11">
         <v>13000</v>
       </c>
+      <c r="JI30" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20880,10 +20949,13 @@
         <v>34500</v>
       </c>
       <c r="JH31" s="11">
-        <v>34600</v>
+        <v>34700</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>34800</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21684,10 +21756,13 @@
         <v>8600</v>
       </c>
       <c r="JH32" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JI32" s="11">
         <v>8500</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22490,8 +22565,11 @@
       <c r="JH33" s="11">
         <v>3800</v>
       </c>
+      <c r="JI33" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23294,8 +23372,11 @@
       <c r="JH34" s="11">
         <v>5000</v>
       </c>
+      <c r="JI34" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24098,8 +24179,11 @@
       <c r="JH35" s="11">
         <v>6300</v>
       </c>
+      <c r="JI35" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24902,8 +24986,11 @@
       <c r="JH36" s="11">
         <v>5300</v>
       </c>
+      <c r="JI36" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -25706,8 +25793,11 @@
       <c r="JH37" s="11">
         <v>3800</v>
       </c>
+      <c r="JI37" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26508,10 +26598,13 @@
         <v>16100</v>
       </c>
       <c r="JH38" s="11">
-        <v>16300</v>
+        <v>16100</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>15500</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27312,10 +27405,13 @@
         <v>11400</v>
       </c>
       <c r="JH39" s="11">
-        <v>11600</v>
+        <v>11400</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28116,10 +28212,13 @@
         <v>7100</v>
       </c>
       <c r="JH40" s="11">
-        <v>7200</v>
+        <v>7100</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>7000</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -28920,10 +29019,13 @@
         <v>3100</v>
       </c>
       <c r="JH41" s="11">
-        <v>3200</v>
+        <v>3100</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29726,8 +29828,11 @@
       <c r="JH42" s="11">
         <v>4700</v>
       </c>
+      <c r="JI42" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30528,10 +30633,13 @@
         <v>43800</v>
       </c>
       <c r="JH43" s="11">
-        <v>43900</v>
+        <v>43800</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>44000</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31332,10 +31440,13 @@
         <v>17000</v>
       </c>
       <c r="JH44" s="11">
+        <v>16700</v>
+      </c>
+      <c r="JI44" s="11">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>49</v>
       </c>
@@ -32138,8 +32249,11 @@
       <c r="JH45" s="11">
         <v>7900</v>
       </c>
+      <c r="JI45" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>50</v>
       </c>
@@ -32942,8 +33056,11 @@
       <c r="JH46" s="11">
         <v>19200</v>
       </c>
+      <c r="JI46" s="11">
+        <v>19300</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>51</v>
       </c>
@@ -33744,10 +33861,13 @@
         <v>17900</v>
       </c>
       <c r="JH47" s="11">
-        <v>18100</v>
+        <v>18200</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>18200</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>52</v>
       </c>
@@ -34550,8 +34670,11 @@
       <c r="JH48" s="11">
         <v>7800</v>
       </c>
+      <c r="JI48" s="11">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -35352,10 +35475,13 @@
         <v>49200</v>
       </c>
       <c r="JH49" s="11">
-        <v>48300</v>
+        <v>48700</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>49600</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36156,10 +36282,13 @@
         <v>33100</v>
       </c>
       <c r="JH50" s="11">
-        <v>33700</v>
+        <v>33600</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>32900</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>59</v>
       </c>
@@ -36962,8 +37091,11 @@
       <c r="JH51" s="11">
         <v>29500</v>
       </c>
+      <c r="JI51" s="11">
+        <v>29200</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>63</v>
       </c>
@@ -37766,8 +37898,11 @@
       <c r="JH52" s="11">
         <v>8400</v>
       </c>
+      <c r="JI52" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>64</v>
       </c>
@@ -38568,10 +38703,13 @@
         <v>42300</v>
       </c>
       <c r="JH53" s="11">
-        <v>43200</v>
+        <v>43900</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>45700</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>65</v>
       </c>
@@ -39374,8 +39512,11 @@
       <c r="JH54" s="11">
         <v>7700</v>
       </c>
+      <c r="JI54" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>66</v>
       </c>
@@ -40178,8 +40319,11 @@
       <c r="JH55" s="11">
         <v>1700</v>
       </c>
+      <c r="JI55" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -40982,8 +41126,11 @@
       <c r="JH56" s="11">
         <v>6000</v>
       </c>
+      <c r="JI56" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -41784,10 +41931,13 @@
         <v>34600</v>
       </c>
       <c r="JH57" s="11">
-        <v>35500</v>
+        <v>36200</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>38000</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42590,8 +42740,11 @@
       <c r="JH58" s="11">
         <v>2700</v>
       </c>
+      <c r="JI58" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43394,8 +43547,11 @@
       <c r="JH59" s="11">
         <v>1200</v>
       </c>
+      <c r="JI59" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44198,8 +44354,11 @@
       <c r="JH60" s="11">
         <v>1500</v>
       </c>
+      <c r="JI60" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45000,10 +45159,13 @@
         <v>31900</v>
       </c>
       <c r="JH61" s="11">
-        <v>32800</v>
+        <v>33500</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>35200</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -45804,10 +45966,13 @@
         <v>16200</v>
       </c>
       <c r="JH62" s="11">
-        <v>17100</v>
+        <v>17800</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -46610,8 +46775,11 @@
       <c r="JH63" s="11">
         <v>15700</v>
       </c>
+      <c r="JI63" s="11">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47414,8 +47582,11 @@
       <c r="JH64" s="11">
         <v>9600</v>
       </c>
+      <c r="JI64" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48216,10 +48387,13 @@
         <v>3600</v>
       </c>
       <c r="JH65" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JI65" s="11">
         <v>3700</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>77</v>
       </c>
@@ -49020,10 +49194,13 @@
         <v>2500</v>
       </c>
       <c r="JH66" s="11">
-        <v>2400</v>
+        <v>2500</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>2300</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>158</v>
       </c>
@@ -49036,7 +49213,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>16</v>
       </c>
@@ -49049,7 +49226,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>159</v>
       </c>
@@ -49062,7 +49239,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -49075,7 +49252,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -49088,7 +49265,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -49101,7 +49278,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -49114,7 +49291,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>164</v>
       </c>

--- a/lowe/edd/data/VENT$HWS.xlsx
+++ b/lowe/edd/data/VENT$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1517,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI75"/>
+  <dimension ref="A1:JJ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2390,11 +2390,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3198,10 +3201,13 @@
         <v>409300</v>
       </c>
       <c r="JI9" s="11">
-        <v>410200</v>
+        <v>411100</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>411900</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4005,10 +4011,13 @@
         <v>384000</v>
       </c>
       <c r="JI10" s="11">
-        <v>388600</v>
+        <v>389400</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>391100</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4814,8 +4823,11 @@
       <c r="JI11" s="11">
         <v>21600</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>20700</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5621,8 +5633,11 @@
       <c r="JI12" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6426,10 +6441,13 @@
         <v>321000</v>
       </c>
       <c r="JI13" s="11">
-        <v>322200</v>
+        <v>323400</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>326000</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7235,8 +7253,11 @@
       <c r="JI14" s="11">
         <v>24100</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>24400</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8040,10 +8061,13 @@
         <v>297100</v>
       </c>
       <c r="JI15" s="11">
-        <v>298100</v>
+        <v>299300</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>301600</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8847,10 +8871,13 @@
         <v>253200</v>
       </c>
       <c r="JI16" s="11">
-        <v>252400</v>
+        <v>253600</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>254800</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9654,10 +9681,13 @@
         <v>44800</v>
       </c>
       <c r="JI17" s="11">
-        <v>44200</v>
+        <v>44300</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10461,10 +10491,13 @@
         <v>18200</v>
       </c>
       <c r="JI18" s="11">
-        <v>17500</v>
+        <v>17600</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>17600</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11270,8 +11303,11 @@
       <c r="JI19" s="11">
         <v>900</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12075,10 +12111,13 @@
         <v>17300</v>
       </c>
       <c r="JI20" s="11">
-        <v>16600</v>
+        <v>16700</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>16700</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12882,10 +12921,13 @@
         <v>11600</v>
       </c>
       <c r="JI21" s="11">
-        <v>11600</v>
+        <v>11300</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>11400</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13691,8 +13733,11 @@
       <c r="JI22" s="11">
         <v>26700</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>26700</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14498,8 +14543,11 @@
       <c r="JI23" s="11">
         <v>18600</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>18600</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15305,8 +15353,11 @@
       <c r="JI24" s="11">
         <v>5200</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -16112,8 +16163,11 @@
       <c r="JI25" s="11">
         <v>8100</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16919,8 +16973,11 @@
       <c r="JI26" s="11">
         <v>3300</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17724,10 +17781,13 @@
         <v>252300</v>
       </c>
       <c r="JI27" s="11">
-        <v>253900</v>
+        <v>255000</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>257300</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18531,10 +18591,13 @@
         <v>208400</v>
       </c>
       <c r="JI28" s="11">
-        <v>208200</v>
+        <v>209300</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>210500</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19338,10 +19401,13 @@
         <v>54000</v>
       </c>
       <c r="JI29" s="11">
-        <v>54100</v>
+        <v>54000</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>54500</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20147,8 +20213,11 @@
       <c r="JI30" s="11">
         <v>13000</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20952,10 +21021,13 @@
         <v>34700</v>
       </c>
       <c r="JI31" s="11">
-        <v>34800</v>
+        <v>34700</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>35100</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21761,8 +21833,11 @@
       <c r="JI32" s="11">
         <v>8500</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22568,8 +22643,11 @@
       <c r="JI33" s="11">
         <v>3800</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23375,8 +23453,11 @@
       <c r="JI34" s="11">
         <v>5000</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24182,8 +24263,11 @@
       <c r="JI35" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24989,8 +25073,11 @@
       <c r="JI36" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -25794,10 +25881,13 @@
         <v>3800</v>
       </c>
       <c r="JI37" s="11">
-        <v>3800</v>
+        <v>4000</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>4000</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26601,10 +26691,13 @@
         <v>16100</v>
       </c>
       <c r="JI38" s="11">
-        <v>15500</v>
+        <v>15800</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>15800</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27408,10 +27501,13 @@
         <v>11400</v>
       </c>
       <c r="JI39" s="11">
-        <v>11000</v>
+        <v>11200</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>11200</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28215,10 +28311,13 @@
         <v>7100</v>
       </c>
       <c r="JI40" s="11">
-        <v>7000</v>
+        <v>7100</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>7100</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29024,8 +29123,11 @@
       <c r="JI41" s="11">
         <v>3100</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29829,10 +29931,13 @@
         <v>4700</v>
       </c>
       <c r="JI42" s="11">
-        <v>4500</v>
+        <v>4600</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>4600</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30636,10 +30741,13 @@
         <v>43800</v>
       </c>
       <c r="JI43" s="11">
-        <v>44000</v>
+        <v>44500</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>44300</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31443,10 +31551,13 @@
         <v>16700</v>
       </c>
       <c r="JI44" s="11">
-        <v>16800</v>
+        <v>17200</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>49</v>
       </c>
@@ -32252,8 +32363,11 @@
       <c r="JI45" s="11">
         <v>7900</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>50</v>
       </c>
@@ -33057,10 +33171,13 @@
         <v>19200</v>
       </c>
       <c r="JI46" s="11">
-        <v>19300</v>
+        <v>19400</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>19200</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>51</v>
       </c>
@@ -33864,10 +33981,13 @@
         <v>18200</v>
       </c>
       <c r="JI47" s="11">
-        <v>18200</v>
+        <v>18300</v>
+      </c>
+      <c r="JJ47" s="11">
+        <v>18100</v>
       </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>52</v>
       </c>
@@ -34671,10 +34791,13 @@
         <v>7800</v>
       </c>
       <c r="JI48" s="11">
-        <v>8000</v>
+        <v>8100</v>
+      </c>
+      <c r="JJ48" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -35480,8 +35603,11 @@
       <c r="JI49" s="11">
         <v>49600</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>49900</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36285,10 +36411,13 @@
         <v>33600</v>
       </c>
       <c r="JI50" s="11">
-        <v>32900</v>
+        <v>33000</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>33600</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>59</v>
       </c>
@@ -37092,10 +37221,13 @@
         <v>29500</v>
       </c>
       <c r="JI51" s="11">
-        <v>29200</v>
+        <v>29300</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>29700</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>63</v>
       </c>
@@ -37899,10 +38031,13 @@
         <v>8400</v>
       </c>
       <c r="JI52" s="11">
-        <v>8300</v>
+        <v>8400</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>8400</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>64</v>
       </c>
@@ -38708,8 +38843,11 @@
       <c r="JI53" s="11">
         <v>45700</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>46800</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>65</v>
       </c>
@@ -39515,8 +39653,11 @@
       <c r="JI54" s="11">
         <v>7700</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>66</v>
       </c>
@@ -40322,8 +40463,11 @@
       <c r="JI55" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -41129,8 +41273,11 @@
       <c r="JI56" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -41936,8 +42083,11 @@
       <c r="JI57" s="11">
         <v>38000</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>39100</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42743,8 +42893,11 @@
       <c r="JI58" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43550,8 +43703,11 @@
       <c r="JI59" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44357,8 +44513,11 @@
       <c r="JI60" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45164,8 +45323,11 @@
       <c r="JI61" s="11">
         <v>35200</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>36200</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -45971,8 +46133,11 @@
       <c r="JI62" s="11">
         <v>19600</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>20600</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -46778,8 +46943,11 @@
       <c r="JI63" s="11">
         <v>15600</v>
       </c>
+      <c r="JJ63" s="11">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47585,8 +47753,11 @@
       <c r="JI64" s="11">
         <v>9600</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48390,10 +48561,13 @@
         <v>3600</v>
       </c>
       <c r="JI65" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JJ65" s="11">
         <v>3700</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>77</v>
       </c>
@@ -49197,10 +49371,13 @@
         <v>2500</v>
       </c>
       <c r="JI66" s="11">
-        <v>2300</v>
+        <v>2400</v>
+      </c>
+      <c r="JJ66" s="11">
+        <v>2400</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>158</v>
       </c>
@@ -49213,7 +49390,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>16</v>
       </c>
@@ -49226,7 +49403,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>159</v>
       </c>
@@ -49239,7 +49416,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -49252,7 +49429,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -49265,7 +49442,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -49278,7 +49455,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -49291,7 +49468,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>164</v>
       </c>

--- a/lowe/edd/data/VENT$HWS.xlsx
+++ b/lowe/edd/data/VENT$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1517,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ75"/>
+  <dimension ref="A1:JL75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2393,11 +2393,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3204,10 +3210,16 @@
         <v>411100</v>
       </c>
       <c r="JJ9" s="11">
+        <v>411200</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>412300</v>
+      </c>
+      <c r="JL9" s="11">
         <v>411900</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4014,10 +4026,16 @@
         <v>389400</v>
       </c>
       <c r="JJ10" s="11">
-        <v>391100</v>
+        <v>390400</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>393900</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>394600</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4826,8 +4844,14 @@
       <c r="JJ11" s="11">
         <v>20700</v>
       </c>
+      <c r="JK11" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5636,8 +5660,14 @@
       <c r="JJ12" s="12">
         <v>0.05</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6444,10 +6474,16 @@
         <v>323400</v>
       </c>
       <c r="JJ13" s="11">
-        <v>326000</v>
+        <v>325000</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>326300</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>326800</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7256,8 +7292,14 @@
       <c r="JJ14" s="11">
         <v>24400</v>
       </c>
+      <c r="JK14" s="11">
+        <v>23400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>22600</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8064,10 +8106,16 @@
         <v>299300</v>
       </c>
       <c r="JJ15" s="11">
-        <v>301600</v>
+        <v>300600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>302900</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>304200</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8874,10 +8922,16 @@
         <v>253600</v>
       </c>
       <c r="JJ16" s="11">
-        <v>254800</v>
+        <v>255100</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>257000</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>258400</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9684,10 +9738,16 @@
         <v>44300</v>
       </c>
       <c r="JJ17" s="11">
+        <v>44200</v>
+      </c>
+      <c r="JK17" s="11">
         <v>44300</v>
       </c>
+      <c r="JL17" s="11">
+        <v>44400</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10496,8 +10556,14 @@
       <c r="JJ18" s="11">
         <v>17600</v>
       </c>
+      <c r="JK18" s="11">
+        <v>17700</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>17800</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11306,8 +11372,14 @@
       <c r="JJ19" s="11">
         <v>900</v>
       </c>
+      <c r="JK19" s="11">
+        <v>900</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12116,8 +12188,14 @@
       <c r="JJ20" s="11">
         <v>16700</v>
       </c>
+      <c r="JK20" s="11">
+        <v>16800</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12926,8 +13004,14 @@
       <c r="JJ21" s="11">
         <v>11400</v>
       </c>
+      <c r="JK21" s="11">
+        <v>11300</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13734,10 +13818,16 @@
         <v>26700</v>
       </c>
       <c r="JJ22" s="11">
-        <v>26700</v>
+        <v>26600</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>26600</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>26600</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14544,10 +14634,16 @@
         <v>18600</v>
       </c>
       <c r="JJ23" s="11">
+        <v>18500</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>18500</v>
+      </c>
+      <c r="JL23" s="11">
         <v>18600</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15354,10 +15450,16 @@
         <v>5200</v>
       </c>
       <c r="JJ24" s="11">
+        <v>5100</v>
+      </c>
+      <c r="JK24" s="11">
         <v>5200</v>
       </c>
+      <c r="JL24" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -16166,8 +16268,14 @@
       <c r="JJ25" s="11">
         <v>8100</v>
       </c>
+      <c r="JK25" s="11">
+        <v>8100</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16976,8 +17084,14 @@
       <c r="JJ26" s="11">
         <v>3300</v>
       </c>
+      <c r="JK26" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17784,10 +17898,16 @@
         <v>255000</v>
       </c>
       <c r="JJ27" s="11">
-        <v>257300</v>
+        <v>256400</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>258600</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>259800</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18594,10 +18714,16 @@
         <v>209300</v>
       </c>
       <c r="JJ28" s="11">
-        <v>210500</v>
+        <v>210900</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>212700</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>214000</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19404,10 +19530,16 @@
         <v>54000</v>
       </c>
       <c r="JJ29" s="11">
-        <v>54500</v>
+        <v>55000</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>56100</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>56800</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20214,10 +20346,16 @@
         <v>13000</v>
       </c>
       <c r="JJ30" s="11">
-        <v>13000</v>
+        <v>12900</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>12900</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>12900</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -21024,10 +21162,16 @@
         <v>34700</v>
       </c>
       <c r="JJ31" s="11">
-        <v>35100</v>
+        <v>35700</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>36700</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>37200</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21836,8 +21980,14 @@
       <c r="JJ32" s="11">
         <v>8600</v>
       </c>
+      <c r="JK32" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22644,10 +22794,16 @@
         <v>3800</v>
       </c>
       <c r="JJ33" s="11">
-        <v>3900</v>
+        <v>4000</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>4700</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23456,8 +23612,14 @@
       <c r="JJ34" s="11">
         <v>5200</v>
       </c>
+      <c r="JK34" s="11">
+        <v>5700</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24266,8 +24428,14 @@
       <c r="JJ35" s="11">
         <v>6400</v>
       </c>
+      <c r="JK35" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -25076,8 +25244,14 @@
       <c r="JJ36" s="11">
         <v>5500</v>
       </c>
+      <c r="JK36" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -25886,8 +26060,14 @@
       <c r="JJ37" s="11">
         <v>4000</v>
       </c>
+      <c r="JK37" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26696,8 +26876,14 @@
       <c r="JJ38" s="11">
         <v>15800</v>
       </c>
+      <c r="JK38" s="11">
+        <v>15800</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>15700</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27506,8 +27692,14 @@
       <c r="JJ39" s="11">
         <v>11200</v>
       </c>
+      <c r="JK39" s="11">
+        <v>11200</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28314,10 +28506,16 @@
         <v>7100</v>
       </c>
       <c r="JJ40" s="11">
-        <v>7100</v>
+        <v>7000</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>6900</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29126,8 +29324,14 @@
       <c r="JJ41" s="11">
         <v>3200</v>
       </c>
+      <c r="JK41" s="11">
+        <v>3200</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29936,8 +30140,14 @@
       <c r="JJ42" s="11">
         <v>4600</v>
       </c>
+      <c r="JK42" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30744,10 +30954,16 @@
         <v>44500</v>
       </c>
       <c r="JJ43" s="11">
-        <v>44300</v>
+        <v>44700</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>44800</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>44900</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31556,8 +31772,14 @@
       <c r="JJ44" s="11">
         <v>17200</v>
       </c>
+      <c r="JK44" s="11">
+        <v>17400</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>17500</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>49</v>
       </c>
@@ -32366,8 +32588,14 @@
       <c r="JJ45" s="11">
         <v>7900</v>
       </c>
+      <c r="JK45" s="11">
+        <v>7900</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>50</v>
       </c>
@@ -33174,10 +33402,16 @@
         <v>19400</v>
       </c>
       <c r="JJ46" s="11">
-        <v>19200</v>
+        <v>19600</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>19500</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>51</v>
       </c>
@@ -33984,10 +34218,16 @@
         <v>18300</v>
       </c>
       <c r="JJ47" s="11">
-        <v>18100</v>
+        <v>18500</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>18400</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>52</v>
       </c>
@@ -34794,10 +35034,16 @@
         <v>8100</v>
       </c>
       <c r="JJ48" s="11">
-        <v>8200</v>
+        <v>8400</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>8500</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>8500</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -35604,10 +35850,16 @@
         <v>49600</v>
       </c>
       <c r="JJ49" s="11">
-        <v>49900</v>
+        <v>49200</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>49500</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>49500</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36414,10 +36666,16 @@
         <v>33000</v>
       </c>
       <c r="JJ50" s="11">
-        <v>33600</v>
+        <v>33800</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>34000</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>34600</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>59</v>
       </c>
@@ -37224,10 +37482,16 @@
         <v>29300</v>
       </c>
       <c r="JJ51" s="11">
-        <v>29700</v>
+        <v>29900</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>30300</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>30500</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>63</v>
       </c>
@@ -38036,8 +38300,14 @@
       <c r="JJ52" s="11">
         <v>8400</v>
       </c>
+      <c r="JK52" s="11">
+        <v>8500</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>64</v>
       </c>
@@ -38844,10 +39114,16 @@
         <v>45700</v>
       </c>
       <c r="JJ53" s="11">
-        <v>46800</v>
+        <v>45500</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>45900</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>45800</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>65</v>
       </c>
@@ -39656,8 +39932,14 @@
       <c r="JJ54" s="11">
         <v>7700</v>
       </c>
+      <c r="JK54" s="11">
+        <v>7700</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>66</v>
       </c>
@@ -40466,8 +40748,14 @@
       <c r="JJ55" s="11">
         <v>1700</v>
       </c>
+      <c r="JK55" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -41276,8 +41564,14 @@
       <c r="JJ56" s="11">
         <v>6000</v>
       </c>
+      <c r="JK56" s="11">
+        <v>6000</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -42084,10 +42378,16 @@
         <v>38000</v>
       </c>
       <c r="JJ57" s="11">
-        <v>39100</v>
+        <v>37800</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>38200</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>38100</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42896,8 +43196,14 @@
       <c r="JJ58" s="11">
         <v>2900</v>
       </c>
+      <c r="JK58" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43706,8 +44012,14 @@
       <c r="JJ59" s="11">
         <v>1400</v>
       </c>
+      <c r="JK59" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44516,8 +44828,14 @@
       <c r="JJ60" s="11">
         <v>1500</v>
       </c>
+      <c r="JK60" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45324,10 +45642,16 @@
         <v>35200</v>
       </c>
       <c r="JJ61" s="11">
-        <v>36200</v>
+        <v>34900</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>35300</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>35100</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -46134,10 +46458,16 @@
         <v>19600</v>
       </c>
       <c r="JJ62" s="11">
-        <v>20600</v>
+        <v>19300</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>19700</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>19500</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -46946,8 +47276,14 @@
       <c r="JJ63" s="11">
         <v>15600</v>
       </c>
+      <c r="JK63" s="11">
+        <v>15600</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47756,8 +48092,14 @@
       <c r="JJ64" s="11">
         <v>9500</v>
       </c>
+      <c r="JK64" s="11">
+        <v>9500</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48566,8 +48908,14 @@
       <c r="JJ65" s="11">
         <v>3700</v>
       </c>
+      <c r="JK65" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>77</v>
       </c>
@@ -49376,8 +49724,14 @@
       <c r="JJ66" s="11">
         <v>2400</v>
       </c>
+      <c r="JK66" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>158</v>
       </c>
@@ -49390,7 +49744,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>16</v>
       </c>
@@ -49403,7 +49757,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>159</v>
       </c>
@@ -49416,7 +49770,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -49429,7 +49783,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -49442,7 +49796,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -49455,7 +49809,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -49468,7 +49822,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>164</v>
       </c>
